--- a/BOM/BOM_Gerber_Wuxi External Box_2025-03-18_2025-05-.xlsx
+++ b/BOM/BOM_Gerber_Wuxi External Box_2025-03-18_2025-05-.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="855" windowWidth="27735" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_20250318_PCB_2025-05-05" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>LED0805-R-RD</t>
   </si>
   <si>
-    <t>国星光电</t>
-  </si>
-  <si>
     <t>C84256</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>FPC-SMD_AFC01-S12FCA-00</t>
   </si>
   <si>
-    <t>JS(钜硕电子)</t>
-  </si>
-  <si>
     <t>C262661</t>
   </si>
   <si>
@@ -211,47 +205,48 @@
     <t>SW-SMD_MK-12C02-G025</t>
   </si>
   <si>
-    <t>G-Switch(品赞)</t>
-  </si>
-  <si>
     <t>C778186</t>
   </si>
   <si>
-    <t>No.7大开关 or  NO.9小开关，二选一，只需要使用其中一种，小开关可以SMD焊接，大开关需要割断PCB并手工焊接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小开关：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大开关：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当连接9号焊点，工作状态将有TF卡是否插入来决定，开关SW1(或SW3）将无作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB厚度=1mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PCB thickness = 1mm</t>
+  </si>
+  <si>
+    <t>No.7 large switch or No.9 small switch, choose one of the two, only one needs to be used, the small switch can be SMD soldered, the large switch needs to cut the PCB and soldered manually</t>
+  </si>
+  <si>
+    <t>Small switch:</t>
+  </si>
+  <si>
+    <t>Nationstar</t>
+  </si>
+  <si>
+    <t>JS(Jiushuo Electronics)</t>
+  </si>
+  <si>
+    <t>G-Switch (Pinzan)</t>
+  </si>
+  <si>
+    <t>Big switch:</t>
+  </si>
+  <si>
+    <t>When connecting solder joint 9, the working status will be determined by whether the TF card is inserted, and switch SW1 (or SW3) will be inactive.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,14 +897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -1033,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1044,31 +1039,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1076,31 +1071,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1108,31 +1103,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1140,31 +1135,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1172,31 +1167,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1204,31 +1199,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1241,27 +1236,27 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
